--- a/data/long_dif/P23_2-Estudios-long_dif.xlsx
+++ b/data/long_dif/P23_2-Estudios-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>28,18%</t>
+          <t>24,87%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>25,75%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>34,13%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,58%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32,04%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24,61%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>28,48; 54,15</t>
+          <t>19,6; 40,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,46; 37,32</t>
+          <t>21,69; 36,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,0; 34,91</t>
+          <t>15,05; 36,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,43; 39,73</t>
+          <t>19,11; 33,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,55; 42,16</t>
+          <t>28,41; 40,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,7; 36,74</t>
+          <t>18,14; 33,18</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>21,42; 33,9</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26,98; 37,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>18,13; 30,87</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>45,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>42,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>40,65%</t>
+          <t>37,25%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,61%</t>
+          <t>39,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>41,34%</t>
+          <t>29,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42,72%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41,19%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>32,61%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 50,33</t>
+          <t>35,18; 64,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,51; 54,06</t>
+          <t>34,46; 55,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,14; 49,03</t>
+          <t>23,97; 61,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,02; 46,83</t>
+          <t>31,38; 48,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,39; 45,94</t>
+          <t>33,96; 46,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,2; 47,75</t>
+          <t>22,0; 37,06</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>36,11; 53,04</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35,93; 48,21</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24,9; 44,54</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,95%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>27,86%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,17%</t>
+          <t>37,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>26,13%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>46,51%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29,69%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>42,78%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 34,03</t>
+          <t>14,31; 33,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 35,4</t>
+          <t>20,55; 35,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,37; 38,87</t>
+          <t>23,76; 48,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,55; 32,1</t>
+          <t>25,62; 41,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,91; 33,74</t>
+          <t>20,3; 31,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 31,42</t>
+          <t>38,0; 56,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22,86; 36,04</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,46; 31,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>33,77; 50,46</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,51%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,95%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>30,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,13; 41,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 34,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,83; 35,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,59; 37,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,33; 36,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,56; 34,26</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>35,82%</t>
+          <t>36,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>43,96%</t>
+          <t>28,87%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,74%</t>
+          <t>23,17%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>36,28%</t>
+          <t>32,29%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25,52%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,3; 41,35</t>
+          <t>30,21; 43,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,43; 49,6</t>
+          <t>24,17; 33,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>32,17; 41,79</t>
+          <t>18,23; 29,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,16; 47,24</t>
+          <t>25,92; 37,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>32,45; 39,76</t>
+          <t>28,13; 36,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 46,93</t>
+          <t>23,77; 33,21</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29,02; 37,13</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,23; 34,19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,87; 29,56</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,67%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>44,16%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,89%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,92%</t>
+          <t>34,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>42,29%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>26,01%</t>
+          <t>37,64%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34,5%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,24%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>39,5%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,92; 34,87</t>
+          <t>28,09; 40,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,06; 32,4</t>
+          <t>38,35; 49,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28,54; 37,43</t>
+          <t>34,08; 48,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,34; 29,13</t>
+          <t>29,65; 40,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>27,14; 34,76</t>
+          <t>37,73; 46,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 29,57</t>
+          <t>32,21; 43,1</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30,27; 38,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39,79; 46,94</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35,19; 44,3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>29,67%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>26,96%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>28,09%</t>
+          <t>35,61%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,05%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,2%</t>
+          <t>34,31%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34,99%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,14; 41,74</t>
+          <t>23,9; 39,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,27; 35,61</t>
+          <t>22,22; 33,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,44; 33,45</t>
+          <t>29,7; 42,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,81; 33,49</t>
+          <t>29,56; 39,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>27,0; 35,56</t>
+          <t>21,55; 29,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,59; 32,6</t>
+          <t>29,26; 39,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28,19; 37,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>23,08; 29,79</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>30,97; 39,12</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>39,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43,1%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>33,22; 46,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>41,39; 52,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>34,44; 45,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>38,14; 48,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,54; 43,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,26; 48,65</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>26,03%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>20,31%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>28,01%</t>
+          <t>27,76%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>28,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>29,48%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>20,7; 31,81</t>
+          <t>25,05; 39,23</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,96; 27,77</t>
+          <t>24,12; 35,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27,04; 37,5</t>
+          <t>15,74; 25,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24,05; 32,64</t>
+          <t>23,0; 33,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,47; 32,78</t>
+          <t>24,5; 33,3</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,81; 29,47</t>
+          <t>22,36; 31,83</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>25,75; 34,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>25,78; 32,99</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>19,83; 27,19</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>35,75%</t>
+          <t>41,33%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29,23%</t>
+          <t>47,28%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>45,89%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>42,36%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>40,31%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>45,07%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>44,06%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>31,67; 40,35</t>
+          <t>34,88; 48,72</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25,81; 32,81</t>
+          <t>41,64; 53,3</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>26,12; 32,1</t>
+          <t>39,38; 54,21</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,22</t>
+          <t>33,91; 45,48</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,86; 35,2</t>
+          <t>38,29; 48,16</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,56; 32,69</t>
+          <t>36,52; 47,32</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>36,09; 44,92</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>41,01; 48,73</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>39,61; 48,76</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>27,24%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>33,81%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>30,99%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>30,21%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>25,66%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>32,35%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>33,28; 41,85</t>
+          <t>21,85; 33,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>41,01; 48,8</t>
+          <t>18,34; 27,43</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35,27; 42,22</t>
+          <t>27,05; 40,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39,31; 44,92</t>
+          <t>27,62; 38,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>35,33; 40,5</t>
+          <t>23,78; 32,51</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>40,98; 45,67</t>
+          <t>26,29; 36,64</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>26,39; 34,54</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22,6; 29,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>28,3; 37,18</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>32,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,09%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,924 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,34; 31,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>22,89; 29,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,19; 35,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,57; 28,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>27,36; 32,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>24,04; 28,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>40,78%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>33,05%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>32,35; 51,88</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>26,08; 41,64</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>30,87; 44,08</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>32,5%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>40,16%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>24,27; 40,5</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>32,06; 47,28</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>29,86; 42,0</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>26,73%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>26,79%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>26,76%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>19,45; 34,43</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>20,03; 33,8</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>22,34; 32,63</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>35,07%</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>22,51%</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>31,53%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>26,7%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>30,45%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>24,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>30,93; 39,59</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>25,95; 32,75</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>19,04; 26,18</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>26,62; 32,66</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>28,67; 34,32</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 29,67</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>29,82; 34,79</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>28,37; 32,69</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>22,22; 27,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>37,21%</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>42,07%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>37,92%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>42,01%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>37,58%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>43,41%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>39,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>33,43; 41,58</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>40,97; 48,58</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>37,47; 48,16</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>34,83; 41,3</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>39,23; 44,79</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>33,98; 40,73</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>35,06; 40,22</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>41,12; 45,89</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>36,91; 43,4</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>35,42%</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>32,61%</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>26,46%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>26,14%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>35,73%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>23,67; 31,58</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 29,32</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>30,97; 39,76</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>29,88; 35,87</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 29,11</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>32,68; 39,82</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>27,63; 32,8</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>24,21; 28,28</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>32,85; 38,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
